--- a/data/processed/state_overviews/florida_overview.xlsx
+++ b/data/processed/state_overviews/florida_overview.xlsx
@@ -389,8 +389,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>3981</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3,981</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -420,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -464,8 +466,10 @@
           <t>Alachua County</t>
         </is>
       </c>
-      <c r="B2">
-        <v>115</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -494,8 +498,10 @@
           <t>Baker County</t>
         </is>
       </c>
-      <c r="B3">
-        <v>4</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -524,8 +530,10 @@
           <t>Bay County</t>
         </is>
       </c>
-      <c r="B4">
-        <v>32</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -554,8 +562,10 @@
           <t>Bradford County</t>
         </is>
       </c>
-      <c r="B5">
-        <v>4</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -584,8 +594,10 @@
           <t>Brevard County</t>
         </is>
       </c>
-      <c r="B6">
-        <v>100</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -614,8 +626,10 @@
           <t>Broward County</t>
         </is>
       </c>
-      <c r="B7">
-        <v>262</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -644,8 +658,10 @@
           <t>Calhoun County</t>
         </is>
       </c>
-      <c r="B8">
-        <v>3</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -674,8 +690,10 @@
           <t>Charlotte County</t>
         </is>
       </c>
-      <c r="B9">
-        <v>32</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -704,8 +722,10 @@
           <t>Citrus County</t>
         </is>
       </c>
-      <c r="B10">
-        <v>26</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -734,8 +754,10 @@
           <t>Clay County</t>
         </is>
       </c>
-      <c r="B11">
-        <v>23</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -764,8 +786,10 @@
           <t>Collier County</t>
         </is>
       </c>
-      <c r="B12">
-        <v>75</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -794,8 +818,10 @@
           <t>Columbia County</t>
         </is>
       </c>
-      <c r="B13">
-        <v>11</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -824,8 +850,10 @@
           <t>DeSoto County</t>
         </is>
       </c>
-      <c r="B14">
-        <v>2</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -854,8 +882,10 @@
           <t>Dixie County</t>
         </is>
       </c>
-      <c r="B15">
-        <v>2</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -884,8 +914,10 @@
           <t>Duval County</t>
         </is>
       </c>
-      <c r="B16">
-        <v>212</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -914,8 +946,10 @@
           <t>Escambia County</t>
         </is>
       </c>
-      <c r="B17">
-        <v>62</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -944,8 +978,10 @@
           <t>Flagler County</t>
         </is>
       </c>
-      <c r="B18">
-        <v>17</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -974,8 +1010,10 @@
           <t>Franklin County</t>
         </is>
       </c>
-      <c r="B19">
-        <v>6</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1004,8 +1042,10 @@
           <t>Gadsden County</t>
         </is>
       </c>
-      <c r="B20">
-        <v>12</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1034,8 +1074,10 @@
           <t>Gilchrist County</t>
         </is>
       </c>
-      <c r="B21">
-        <v>1</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1064,8 +1106,10 @@
           <t>Gulf County</t>
         </is>
       </c>
-      <c r="B22">
-        <v>4</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1094,8 +1138,10 @@
           <t>Hamilton County</t>
         </is>
       </c>
-      <c r="B23">
-        <v>2</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1124,8 +1170,10 @@
           <t>Hardee County</t>
         </is>
       </c>
-      <c r="B24">
-        <v>7</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1154,8 +1202,10 @@
           <t>Hendry County</t>
         </is>
       </c>
-      <c r="B25">
-        <v>5</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1184,8 +1234,10 @@
           <t>Hernando County</t>
         </is>
       </c>
-      <c r="B26">
-        <v>17</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1214,8 +1266,10 @@
           <t>Highlands County</t>
         </is>
       </c>
-      <c r="B27">
-        <v>20</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1244,8 +1298,10 @@
           <t>Hillsborough County</t>
         </is>
       </c>
-      <c r="B28">
-        <v>277</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1274,8 +1330,10 @@
           <t>Holmes County</t>
         </is>
       </c>
-      <c r="B29">
-        <v>3</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1304,8 +1362,10 @@
           <t>Indian River County</t>
         </is>
       </c>
-      <c r="B30">
-        <v>45</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1334,8 +1394,10 @@
           <t>Jackson County</t>
         </is>
       </c>
-      <c r="B31">
-        <v>7</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1364,8 +1426,10 @@
           <t>Jefferson County</t>
         </is>
       </c>
-      <c r="B32">
-        <v>4</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1394,8 +1458,10 @@
           <t>Lake County</t>
         </is>
       </c>
-      <c r="B33">
-        <v>46</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1424,8 +1490,10 @@
           <t>Lee County</t>
         </is>
       </c>
-      <c r="B34">
-        <v>117</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1454,8 +1522,10 @@
           <t>Leon County</t>
         </is>
       </c>
-      <c r="B35">
-        <v>160</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1484,8 +1554,10 @@
           <t>Levy County</t>
         </is>
       </c>
-      <c r="B36">
-        <v>8</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1514,8 +1586,10 @@
           <t>Liberty County</t>
         </is>
       </c>
-      <c r="B37">
-        <v>1</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1544,8 +1618,10 @@
           <t>Madison County</t>
         </is>
       </c>
-      <c r="B38">
-        <v>8</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1574,8 +1650,10 @@
           <t>Manatee County</t>
         </is>
       </c>
-      <c r="B39">
-        <v>63</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1604,8 +1682,10 @@
           <t>Marion County</t>
         </is>
       </c>
-      <c r="B40">
-        <v>58</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1634,8 +1714,10 @@
           <t>Martin County</t>
         </is>
       </c>
-      <c r="B41">
-        <v>40</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1664,8 +1746,10 @@
           <t>Miami-Dade County</t>
         </is>
       </c>
-      <c r="B42">
-        <v>513</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>513</t>
+        </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1694,8 +1778,10 @@
           <t>Monroe County</t>
         </is>
       </c>
-      <c r="B43">
-        <v>67</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1724,8 +1810,10 @@
           <t>Nassau County</t>
         </is>
       </c>
-      <c r="B44">
-        <v>16</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1754,8 +1842,10 @@
           <t>Okaloosa County</t>
         </is>
       </c>
-      <c r="B45">
-        <v>40</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1784,8 +1874,10 @@
           <t>Okeechobee County</t>
         </is>
       </c>
-      <c r="B46">
-        <v>5</v>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1814,8 +1906,10 @@
           <t>Orange County</t>
         </is>
       </c>
-      <c r="B47">
-        <v>269</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1844,8 +1938,10 @@
           <t>Osceola County</t>
         </is>
       </c>
-      <c r="B48">
-        <v>38</v>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1874,8 +1970,10 @@
           <t>Palm Beach County</t>
         </is>
       </c>
-      <c r="B49">
-        <v>294</v>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1904,8 +2002,10 @@
           <t>Pasco County</t>
         </is>
       </c>
-      <c r="B50">
-        <v>60</v>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1934,8 +2034,10 @@
           <t>Pinellas County</t>
         </is>
       </c>
-      <c r="B51">
-        <v>247</v>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1964,8 +2066,10 @@
           <t>Polk County</t>
         </is>
       </c>
-      <c r="B52">
-        <v>101</v>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1994,8 +2098,10 @@
           <t>Putnam County</t>
         </is>
       </c>
-      <c r="B53">
-        <v>12</v>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2024,8 +2130,10 @@
           <t>Santa Rosa County</t>
         </is>
       </c>
-      <c r="B54">
-        <v>8</v>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -2054,8 +2162,10 @@
           <t>Sarasota County</t>
         </is>
       </c>
-      <c r="B55">
-        <v>137</v>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -2084,8 +2194,10 @@
           <t>Seminole County</t>
         </is>
       </c>
-      <c r="B56">
-        <v>61</v>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -2114,8 +2226,10 @@
           <t>St. Johns County</t>
         </is>
       </c>
-      <c r="B57">
-        <v>44</v>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -2144,8 +2258,10 @@
           <t>St. Lucie County</t>
         </is>
       </c>
-      <c r="B58">
-        <v>47</v>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -2174,8 +2290,10 @@
           <t>Sumter County</t>
         </is>
       </c>
-      <c r="B59">
-        <v>10</v>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -2204,8 +2322,10 @@
           <t>Suwannee County</t>
         </is>
       </c>
-      <c r="B60">
-        <v>6</v>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -2234,8 +2354,10 @@
           <t>Taylor County</t>
         </is>
       </c>
-      <c r="B61">
-        <v>4</v>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -2264,8 +2386,10 @@
           <t>Volusia County</t>
         </is>
       </c>
-      <c r="B62">
-        <v>87</v>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -2294,8 +2418,10 @@
           <t>Wakulla County</t>
         </is>
       </c>
-      <c r="B63">
-        <v>3</v>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -2324,8 +2450,10 @@
           <t>Walton County</t>
         </is>
       </c>
-      <c r="B64">
-        <v>15</v>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -2354,8 +2482,10 @@
           <t>Washington County</t>
         </is>
       </c>
-      <c r="B65">
-        <v>4</v>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -2384,27 +2514,61 @@
           <t>Glades County</t>
         </is>
       </c>
-      <c r="B66">
-        <v>0</v>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>3,981</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>$12,417,989,542</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>7.10%</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>-16.26%</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>69.86%</t>
         </is>
       </c>
     </row>
@@ -2459,8 +2623,10 @@
           <t>Congressional District 1</t>
         </is>
       </c>
-      <c r="B2">
-        <v>119</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -2489,8 +2655,10 @@
           <t>Congressional District 10</t>
         </is>
       </c>
-      <c r="B3">
-        <v>220</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -2519,8 +2687,10 @@
           <t>Congressional District 11</t>
         </is>
       </c>
-      <c r="B4">
-        <v>75</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -2549,8 +2719,10 @@
           <t>Congressional District 12</t>
         </is>
       </c>
-      <c r="B5">
-        <v>95</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -2579,8 +2751,10 @@
           <t>Congressional District 13</t>
         </is>
       </c>
-      <c r="B6">
-        <v>155</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -2609,8 +2783,10 @@
           <t>Congressional District 14</t>
         </is>
       </c>
-      <c r="B7">
-        <v>266</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -2639,8 +2815,10 @@
           <t>Congressional District 15</t>
         </is>
       </c>
-      <c r="B8">
-        <v>104</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -2669,8 +2847,10 @@
           <t>Congressional District 16</t>
         </is>
       </c>
-      <c r="B9">
-        <v>85</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -2699,8 +2879,10 @@
           <t>Congressional District 17</t>
         </is>
       </c>
-      <c r="B10">
-        <v>177</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -2729,8 +2911,10 @@
           <t>Congressional District 18</t>
         </is>
       </c>
-      <c r="B11">
-        <v>123</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -2759,8 +2943,10 @@
           <t>Congressional District 19</t>
         </is>
       </c>
-      <c r="B12">
-        <v>166</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2789,8 +2975,10 @@
           <t>Congressional District 2</t>
         </is>
       </c>
-      <c r="B13">
-        <v>257</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2819,8 +3007,10 @@
           <t>Congressional District 20</t>
         </is>
       </c>
-      <c r="B14">
-        <v>138</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2849,8 +3039,10 @@
           <t>Congressional District 21</t>
         </is>
       </c>
-      <c r="B15">
-        <v>135</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2879,8 +3071,10 @@
           <t>Congressional District 22</t>
         </is>
       </c>
-      <c r="B16">
-        <v>139</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2909,8 +3103,10 @@
           <t>Congressional District 23</t>
         </is>
       </c>
-      <c r="B17">
-        <v>159</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2939,8 +3135,10 @@
           <t>Congressional District 24</t>
         </is>
       </c>
-      <c r="B18">
-        <v>147</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2969,8 +3167,10 @@
           <t>Congressional District 25</t>
         </is>
       </c>
-      <c r="B19">
-        <v>71</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2999,8 +3199,10 @@
           <t>Congressional District 26</t>
         </is>
       </c>
-      <c r="B20">
-        <v>106</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -3029,8 +3231,10 @@
           <t>Congressional District 27</t>
         </is>
       </c>
-      <c r="B21">
-        <v>233</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3059,8 +3263,10 @@
           <t>Congressional District 28</t>
         </is>
       </c>
-      <c r="B22">
-        <v>110</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3089,8 +3295,10 @@
           <t>Congressional District 3</t>
         </is>
       </c>
-      <c r="B23">
-        <v>202</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3119,8 +3327,10 @@
           <t>Congressional District 4</t>
         </is>
       </c>
-      <c r="B24">
-        <v>130</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3149,8 +3359,10 @@
           <t>Congressional District 5</t>
         </is>
       </c>
-      <c r="B25">
-        <v>164</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3179,8 +3391,10 @@
           <t>Congressional District 6</t>
         </is>
       </c>
-      <c r="B26">
-        <v>119</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3209,8 +3423,10 @@
           <t>Congressional District 7</t>
         </is>
       </c>
-      <c r="B27">
-        <v>84</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3239,8 +3455,10 @@
           <t>Congressional District 8</t>
         </is>
       </c>
-      <c r="B28">
-        <v>145</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3269,8 +3487,10 @@
           <t>Congressional District 9</t>
         </is>
       </c>
-      <c r="B29">
-        <v>57</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3299,8 +3519,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B30">
-        <v>3981</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>3,981</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3374,8 +3596,10 @@
           <t>Between $100K and $499K</t>
         </is>
       </c>
-      <c r="B2">
-        <v>1060</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1,060</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -3404,8 +3628,10 @@
           <t>Between $1M and $4.99M</t>
         </is>
       </c>
-      <c r="B3">
-        <v>1242</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1,242</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -3434,8 +3660,10 @@
           <t>Between $500K and $999K</t>
         </is>
       </c>
-      <c r="B4">
-        <v>653</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>653</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -3464,8 +3692,10 @@
           <t>Between $5M and $9.99M</t>
         </is>
       </c>
-      <c r="B5">
-        <v>302</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -3494,8 +3724,10 @@
           <t>Greater than $10M</t>
         </is>
       </c>
-      <c r="B6">
-        <v>567</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>567</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -3524,8 +3756,10 @@
           <t>Less than $100K</t>
         </is>
       </c>
-      <c r="B7">
-        <v>157</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -3554,8 +3788,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B8">
-        <v>3981</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3,981</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -3629,8 +3865,10 @@
           <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
-      <c r="B2">
-        <v>389</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>389</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -3659,8 +3897,10 @@
           <t>Education (Excluding Universities)</t>
         </is>
       </c>
-      <c r="B3">
-        <v>591</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -3689,8 +3929,10 @@
           <t>Environment and Animals</t>
         </is>
       </c>
-      <c r="B4">
-        <v>167</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -3719,8 +3961,10 @@
           <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
-      <c r="B5">
-        <v>421</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -3749,8 +3993,10 @@
           <t>Hospitals</t>
         </is>
       </c>
-      <c r="B6">
-        <v>24</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -3779,8 +4025,10 @@
           <t>Human Services</t>
         </is>
       </c>
-      <c r="B7">
-        <v>1247</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1,247</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -3809,8 +4057,10 @@
           <t>International, Foreign Affairs</t>
         </is>
       </c>
-      <c r="B8">
-        <v>50</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -3839,8 +4089,10 @@
           <t>Mutual/Membership Benefit</t>
         </is>
       </c>
-      <c r="B9">
-        <v>2</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -3869,8 +4121,10 @@
           <t>Public, Societal Benefit</t>
         </is>
       </c>
-      <c r="B10">
-        <v>276</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -3899,8 +4153,10 @@
           <t>Religion Related</t>
         </is>
       </c>
-      <c r="B11">
-        <v>95</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -3929,8 +4185,10 @@
           <t>Unclassified</t>
         </is>
       </c>
-      <c r="B12">
-        <v>679</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>679</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -3959,8 +4217,10 @@
           <t>Universities</t>
         </is>
       </c>
-      <c r="B13">
-        <v>40</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -3989,8 +4249,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B14">
-        <v>3981</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>3,981</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>

--- a/data/processed/state_overviews/florida_overview.xlsx
+++ b/data/processed/state_overviews/florida_overview.xlsx
@@ -364,27 +364,27 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
@@ -431,135 +431,135 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>County</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Alachua County</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$252,023,560</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.27%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-22.36%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>76.52%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Baker County</t>
+          <t>Florida</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3,981</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$2,348,875</t>
+          <t>$12,417,989,542</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14.46%</t>
+          <t>7.10%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-45.45%</t>
+          <t>-16.26%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>69.86%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bay County</t>
+          <t>Alachua County</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>115</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$99,799,635</t>
+          <t>$252,023,560</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.96%</t>
+          <t>3.27%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-46.88%</t>
+          <t>-22.36%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>76.52%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bradford County</t>
+          <t>Baker County</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -569,17 +569,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$140,133</t>
+          <t>$2,348,875</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.77%</t>
+          <t>14.46%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-30.49%</t>
+          <t>-45.45%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -591,1031 +591,1031 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Brevard County</t>
+          <t>Bay County</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$247,101,646</t>
+          <t>$99,799,635</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.05%</t>
+          <t>8.96%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-16.44%</t>
+          <t>-46.88%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>72.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Broward County</t>
+          <t>Bradford County</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$1,251,409,170</t>
+          <t>$140,133</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.44%</t>
+          <t>1.77%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-22.99%</t>
+          <t>-30.49%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>74.43%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Calhoun County</t>
+          <t>Brevard County</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$8,990,765</t>
+          <t>$247,101,646</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.06%</t>
+          <t>6.05%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-27.63%</t>
+          <t>-16.44%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>72.00%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Charlotte County</t>
+          <t>Broward County</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>262</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$26,953,653</t>
+          <t>$1,251,409,170</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9.06%</t>
+          <t>5.44%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-31.57%</t>
+          <t>-22.99%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>68.75%</t>
+          <t>74.43%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Citrus County</t>
+          <t>Calhoun County</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$34,490,449</t>
+          <t>$8,990,765</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.96%</t>
+          <t>2.06%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-52.68%</t>
+          <t>-27.63%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>73.08%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Clay County</t>
+          <t>Charlotte County</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$44,205,689</t>
+          <t>$26,953,653</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.46%</t>
+          <t>9.06%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-16.26%</t>
+          <t>-31.57%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>82.61%</t>
+          <t>68.75%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Collier County</t>
+          <t>Citrus County</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$211,590,899</t>
+          <t>$34,490,449</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>11.91%</t>
+          <t>2.96%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-3.03%</t>
+          <t>-52.68%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>54.67%</t>
+          <t>73.08%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Columbia County</t>
+          <t>Clay County</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$27,834,049</t>
+          <t>$44,205,689</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2.40%</t>
+          <t>1.46%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-47.31%</t>
+          <t>-16.26%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>81.82%</t>
+          <t>82.61%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>DeSoto County</t>
+          <t>Collier County</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>75</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$381,753</t>
+          <t>$211,590,899</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>18.27%</t>
+          <t>11.91%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-3.72%</t>
+          <t>-3.03%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>54.67%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Dixie County</t>
+          <t>Columbia County</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$1,291,273</t>
+          <t>$27,834,049</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-1.07%</t>
+          <t>2.40%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-80.86%</t>
+          <t>-47.31%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>81.82%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Duval County</t>
+          <t>DeSoto County</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$734,483,058</t>
+          <t>$381,753</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>6.34%</t>
+          <t>18.27%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-17.90%</t>
+          <t>-3.72%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Escambia County</t>
+          <t>Dixie County</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$115,892,796</t>
+          <t>$1,291,273</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>6.29%</t>
+          <t>-1.07%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-15.34%</t>
+          <t>-80.86%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>72.58%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Flagler County</t>
+          <t>Duval County</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>212</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$17,266,782</t>
+          <t>$734,483,058</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>12.64%</t>
+          <t>6.34%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-22.45%</t>
+          <t>-17.90%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>70.59%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Franklin County</t>
+          <t>Escambia County</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$723,329</t>
+          <t>$115,892,796</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>34.87%</t>
+          <t>6.29%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12.80%</t>
+          <t>-15.34%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>72.58%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Gadsden County</t>
+          <t>Flagler County</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$9,834,364</t>
+          <t>$17,266,782</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3.96%</t>
+          <t>12.64%</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-53.02%</t>
+          <t>-22.45%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>91.67%</t>
+          <t>70.59%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Gilchrist County</t>
+          <t>Franklin County</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$420,684</t>
+          <t>$723,329</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>9.01%</t>
+          <t>34.87%</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4.47%</t>
+          <t>12.80%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Gulf County</t>
+          <t>Gadsden County</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$1,264,439</t>
+          <t>$9,834,364</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>5.70%</t>
+          <t>3.96%</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>-52.77%</t>
+          <t>-53.02%</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>91.67%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Hamilton County</t>
+          <t>Gilchrist County</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$79,153</t>
+          <t>$420,684</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-79.67%</t>
+          <t>9.01%</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>-95.34%</t>
+          <t>4.47%</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Hardee County</t>
+          <t>Gulf County</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$1,396,147</t>
+          <t>$1,264,439</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>17.39%</t>
+          <t>5.70%</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>-18.83%</t>
+          <t>-52.77%</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>57.14%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Hendry County</t>
+          <t>Hamilton County</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$378,772</t>
+          <t>$79,153</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>13.92%</t>
+          <t>-79.67%</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>-5.69%</t>
+          <t>-95.34%</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Hernando County</t>
+          <t>Hardee County</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$43,399,435</t>
+          <t>$1,396,147</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>17.39%</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>-32.50%</t>
+          <t>-18.83%</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>88.24%</t>
+          <t>57.14%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Highlands County</t>
+          <t>Hendry County</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$11,206,050</t>
+          <t>$378,772</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>13.57%</t>
+          <t>13.92%</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>-3.39%</t>
+          <t>-5.69%</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>55.00%</t>
+          <t>60.00%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Hillsborough County</t>
+          <t>Hernando County</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$1,407,963,537</t>
+          <t>$43,399,435</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>5.74%</t>
+          <t>4.71%</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>-13.33%</t>
+          <t>-32.50%</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>70.40%</t>
+          <t>88.24%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Holmes County</t>
+          <t>Highlands County</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>$10,484,050</t>
+          <t>$11,206,050</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>16.56%</t>
+          <t>13.57%</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>-1.21%</t>
+          <t>-3.39%</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>55.00%</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Indian River County</t>
+          <t>Hillsborough County</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>277</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>$61,759,576</t>
+          <t>$1,407,963,537</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>12.26%</t>
+          <t>5.74%</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>-18.54%</t>
+          <t>-13.33%</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>62.22%</t>
+          <t>70.40%</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Jackson County</t>
+          <t>Holmes County</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>$35,936,359</t>
+          <t>$10,484,050</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.32%</t>
+          <t>16.56%</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>-95.97%</t>
+          <t>-1.21%</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>85.71%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Jefferson County</t>
+          <t>Indian River County</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>$1,382,186</t>
+          <t>$61,759,576</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>-13.41%</t>
+          <t>12.26%</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>-90.48%</t>
+          <t>-18.54%</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>62.22%</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Lake County</t>
+          <t>Jackson County</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>$92,853,127</t>
+          <t>$35,936,359</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>9.00%</t>
+          <t>1.32%</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>-6.85%</t>
+          <t>-95.97%</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>63.04%</t>
+          <t>85.71%</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Lee County</t>
+          <t>Jefferson County</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>$229,141,473</t>
+          <t>$1,382,186</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>11.56%</t>
+          <t>-13.41%</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>-9.64%</t>
+          <t>-90.48%</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>63.25%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Leon County</t>
+          <t>Lake County</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>$852,721,345</t>
+          <t>$92,853,127</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2.61%</t>
+          <t>9.00%</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>-36.93%</t>
+          <t>-6.85%</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>81.25%</t>
+          <t>63.04%</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Levy County</t>
+          <t>Lee County</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>117</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>$2,980,266</t>
+          <t>$229,141,473</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>3.45%</t>
+          <t>11.56%</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>-25.09%</t>
+          <t>-9.64%</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>87.50%</t>
+          <t>63.25%</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Liberty County</t>
+          <t>Leon County</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>160</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>$456,385</t>
+          <t>$852,721,345</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>10.32%</t>
+          <t>2.61%</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>-62.76%</t>
+          <t>-36.93%</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>81.25%</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Madison County</t>
+          <t>Levy County</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1625,17 +1625,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>$7,192,846</t>
+          <t>$2,980,266</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>3.62%</t>
+          <t>3.45%</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>-40.28%</t>
+          <t>-25.09%</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1647,928 +1647,928 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Manatee County</t>
+          <t>Liberty County</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>$131,016,077</t>
+          <t>$456,385</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>4.67%</t>
+          <t>10.32%</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>-9.49%</t>
+          <t>-62.76%</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>68.25%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Marion County</t>
+          <t>Madison County</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>$99,988,649</t>
+          <t>$7,192,846</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>10.75%</t>
+          <t>3.62%</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>-14.99%</t>
+          <t>-40.28%</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>60.34%</t>
+          <t>87.50%</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Martin County</t>
+          <t>Manatee County</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>$61,948,190</t>
+          <t>$131,016,077</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>17.12%</t>
+          <t>4.67%</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>-6.81%</t>
+          <t>-9.49%</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>68.25%</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Miami-Dade County</t>
+          <t>Marion County</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>58</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>$2,359,934,151</t>
+          <t>$99,988,649</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>6.68%</t>
+          <t>10.75%</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>-29.24%</t>
+          <t>-14.99%</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>78.75%</t>
+          <t>60.34%</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Monroe County</t>
+          <t>Martin County</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>$53,789,178</t>
+          <t>$61,948,190</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>9.64%</t>
+          <t>17.12%</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>-26.06%</t>
+          <t>-6.81%</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>71.64%</t>
+          <t>60.00%</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Nassau County</t>
+          <t>Miami-Dade County</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>513</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>$12,063,993</t>
+          <t>$2,359,934,151</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>11.69%</t>
+          <t>6.68%</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>-6.57%</t>
+          <t>-29.24%</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>56.25%</t>
+          <t>78.75%</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Okaloosa County</t>
+          <t>Monroe County</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>67</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>$45,017,157</t>
+          <t>$53,789,178</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>5.58%</t>
+          <t>9.64%</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>-7.93%</t>
+          <t>-26.06%</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>65.00%</t>
+          <t>71.64%</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Okeechobee County</t>
+          <t>Nassau County</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>$2,457,907</t>
+          <t>$12,063,993</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>12.47%</t>
+          <t>11.69%</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>-29.93%</t>
+          <t>-6.57%</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>56.25%</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Orange County</t>
+          <t>Okaloosa County</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>$900,892,042</t>
+          <t>$45,017,157</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>10.28%</t>
+          <t>5.58%</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>-9.86%</t>
+          <t>-7.93%</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>63.20%</t>
+          <t>65.00%</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Osceola County</t>
+          <t>Okeechobee County</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>$116,329,684</t>
+          <t>$2,457,907</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2.88%</t>
+          <t>12.47%</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>-55.17%</t>
+          <t>-29.93%</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>78.95%</t>
+          <t>60.00%</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Palm Beach County</t>
+          <t>Orange County</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>269</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>$643,349,006</t>
+          <t>$900,892,042</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>8.44%</t>
+          <t>10.28%</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>-7.21%</t>
+          <t>-9.86%</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>62.24%</t>
+          <t>63.20%</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Pasco County</t>
+          <t>Osceola County</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>$152,518,252</t>
+          <t>$116,329,684</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>5.39%</t>
+          <t>2.88%</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>-19.14%</t>
+          <t>-55.17%</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>78.95%</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Pinellas County</t>
+          <t>Palm Beach County</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>294</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>$742,347,141</t>
+          <t>$643,349,006</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>4.81%</t>
+          <t>8.44%</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>-15.95%</t>
+          <t>-7.21%</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>69.23%</t>
+          <t>62.24%</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Polk County</t>
+          <t>Pasco County</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>$263,497,115</t>
+          <t>$152,518,252</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>7.47%</t>
+          <t>5.39%</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>-10.30%</t>
+          <t>-19.14%</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>64.36%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Putnam County</t>
+          <t>Pinellas County</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>247</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>$18,254,001</t>
+          <t>$742,347,141</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>12.72%</t>
+          <t>4.81%</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>-18.76%</t>
+          <t>-15.95%</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>58.33%</t>
+          <t>69.23%</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Santa Rosa County</t>
+          <t>Polk County</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>101</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>$12,868,640</t>
+          <t>$263,497,115</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>9.42%</t>
+          <t>7.47%</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>-33.93%</t>
+          <t>-10.30%</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>64.36%</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Sarasota County</t>
+          <t>Putnam County</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>$207,704,911</t>
+          <t>$18,254,001</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>10.59%</t>
+          <t>12.72%</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>-6.02%</t>
+          <t>-18.76%</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>56.20%</t>
+          <t>58.33%</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Seminole County</t>
+          <t>Santa Rosa County</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>$96,642,713</t>
+          <t>$12,868,640</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>4.03%</t>
+          <t>9.42%</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>-16.55%</t>
+          <t>-33.93%</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>68.85%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>St. Johns County</t>
+          <t>Sarasota County</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>137</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>$79,154,312</t>
+          <t>$207,704,911</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>11.08%</t>
+          <t>10.59%</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>-3.21%</t>
+          <t>-6.02%</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>54.55%</t>
+          <t>56.20%</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>St. Lucie County</t>
+          <t>Seminole County</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>$125,007,084</t>
+          <t>$96,642,713</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>4.43%</t>
+          <t>4.03%</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>-20.90%</t>
+          <t>-16.55%</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>76.60%</t>
+          <t>68.85%</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sumter County</t>
+          <t>St. Johns County</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>$79,896,447</t>
+          <t>$79,154,312</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2.35%</t>
+          <t>11.08%</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>-15.38%</t>
+          <t>-3.21%</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>90.00%</t>
+          <t>54.55%</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Suwannee County</t>
+          <t>St. Lucie County</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>$11,432,544</t>
+          <t>$125,007,084</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2.30%</t>
+          <t>4.43%</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>-43.70%</t>
+          <t>-20.90%</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>83.33%</t>
+          <t>76.60%</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Taylor County</t>
+          <t>Sumter County</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>$4,557,620</t>
+          <t>$79,896,447</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>9.22%</t>
+          <t>2.35%</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>-38.24%</t>
+          <t>-15.38%</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>90.00%</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Volusia County</t>
+          <t>Suwannee County</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>$333,477,682</t>
+          <t>$11,432,544</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>8.39%</t>
+          <t>2.30%</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>-12.22%</t>
+          <t>-43.70%</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>63.22%</t>
+          <t>83.33%</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Wakulla County</t>
+          <t>Taylor County</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>$1,424,040</t>
+          <t>$4,557,620</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>5.55%</t>
+          <t>9.22%</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>-23.58%</t>
+          <t>-38.24%</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Walton County</t>
+          <t>Volusia County</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>87</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>$13,831,342</t>
+          <t>$333,477,682</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>14.88%</t>
+          <t>8.39%</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>-13.68%</t>
+          <t>-12.22%</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>63.22%</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Washington County</t>
+          <t>Wakulla County</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>$811,956</t>
+          <t>$1,424,040</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>6.98%</t>
+          <t>5.55%</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>-30.62%</t>
+          <t>-23.58%</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Glades County</t>
+          <t>Walton County</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$13,831,342</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>14.88%</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-13.68%</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Washington County</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>3,981</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>$12,417,989,542</t>
+          <t>$811,956</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>7.10%</t>
+          <t>6.98%</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>-16.26%</t>
+          <t>-30.62%</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>69.86%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -2579,7 +2579,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2588,960 +2588,992 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Congressional District</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Congressional District 1</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$182,374,278</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.73%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-13.19%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>68.91%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Congressional District 10</t>
+          <t>Florida</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>3,981</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$772,921,938</t>
+          <t>$12,417,989,542</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.89%</t>
+          <t>7.10%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-11.24%</t>
+          <t>-16.26%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>65.91%</t>
+          <t>69.86%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Congressional District 11</t>
+          <t>1st Congressional district</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>119</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$197,171,432</t>
+          <t>$182,374,278</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.84%</t>
+          <t>6.73%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-7.19%</t>
+          <t>-13.19%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>62.67%</t>
+          <t>68.91%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Congressional District 12</t>
+          <t>2nd Congressional district</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>257</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$224,122,617</t>
+          <t>$1,040,814,976</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>3.39%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-40.51%</t>
+          <t>-36.79%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>74.74%</t>
+          <t>80.16%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Congressional District 13</t>
+          <t>3rd Congressional district</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>202</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$639,382,495</t>
+          <t>$395,561,209</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.34%</t>
+          <t>4.73%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-9.95%</t>
+          <t>-21.34%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>63.23%</t>
+          <t>73.27%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Congressional District 14</t>
+          <t>4th Congressional district</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>130</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$1,178,206,610</t>
+          <t>$322,673,930</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.75%</t>
+          <t>7.18%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-21.83%</t>
+          <t>-21.71%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>76.32%</t>
+          <t>75.38%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Congressional District 15</t>
+          <t>5th Congressional district</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>164</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$418,353,887</t>
+          <t>$545,392,153</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6.05%</t>
+          <t>6.15%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-11.12%</t>
+          <t>-13.10%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>61.54%</t>
+          <t>68.29%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Congressional District 16</t>
+          <t>6th Congressional district</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>119</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$143,367,563</t>
+          <t>$381,984,481</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.60%</t>
+          <t>9.47%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-6.75%</t>
+          <t>-13.40%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>63.53%</t>
+          <t>66.39%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Congressional District 17</t>
+          <t>7th Congressional district</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>84</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$237,685,449</t>
+          <t>$103,435,517</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>9.76%</t>
+          <t>5.10%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-6.26%</t>
+          <t>-12.59%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>58.76%</t>
+          <t>64.29%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Congressional District 18</t>
+          <t>8th Congressional district</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>145</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$289,221,682</t>
+          <t>$308,861,222</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>8.44%</t>
+          <t>7.78%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-10.37%</t>
+          <t>-17.54%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>65.04%</t>
+          <t>68.97%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Congressional District 19</t>
+          <t>9th Congressional district</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$312,925,747</t>
+          <t>$208,109,872</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>11.64%</t>
+          <t>3.83%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-7.33%</t>
+          <t>-34.64%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>61.45%</t>
+          <t>68.42%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Congressional District 2</t>
+          <t>10th Congressional district</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>220</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$1,040,814,976</t>
+          <t>$772,921,938</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.39%</t>
+          <t>9.89%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-36.79%</t>
+          <t>-11.24%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>80.16%</t>
+          <t>65.91%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Congressional District 20</t>
+          <t>11th Congressional district</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>75</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$773,645,524</t>
+          <t>$197,171,432</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5.55%</t>
+          <t>9.84%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-21.46%</t>
+          <t>-7.19%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>72.46%</t>
+          <t>62.67%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Congressional District 21</t>
+          <t>12th Congressional district</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>95</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$310,759,355</t>
+          <t>$224,122,617</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>8.20%</t>
+          <t>4.71%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-10.59%</t>
+          <t>-40.51%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>65.93%</t>
+          <t>74.74%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Congressional District 22</t>
+          <t>13th Congressional district</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>155</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$370,218,517</t>
+          <t>$639,382,495</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>10.66%</t>
+          <t>7.34%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-10.26%</t>
+          <t>-9.95%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>66.19%</t>
+          <t>63.23%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Congressional District 23</t>
+          <t>14th Congressional district</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>266</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$350,840,124</t>
+          <t>$1,178,206,610</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>7.84%</t>
+          <t>4.75%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-9.65%</t>
+          <t>-21.83%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>76.32%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Congressional District 24</t>
+          <t>15th Congressional district</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>104</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$296,615,504</t>
+          <t>$418,353,887</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>5.76%</t>
+          <t>6.05%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-43.90%</t>
+          <t>-11.12%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>77.55%</t>
+          <t>61.54%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Congressional District 25</t>
+          <t>16th Congressional district</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>85</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$256,682,575</t>
+          <t>$143,367,563</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>5.33%</t>
+          <t>5.60%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-23.26%</t>
+          <t>-6.75%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>70.42%</t>
+          <t>63.53%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Congressional District 26</t>
+          <t>17th Congressional district</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>177</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$516,361,582</t>
+          <t>$237,685,449</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>7.78%</t>
+          <t>9.76%</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-19.82%</t>
+          <t>-6.26%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>75.47%</t>
+          <t>58.76%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Congressional District 27</t>
+          <t>18th Congressional district</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>123</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$1,467,494,785</t>
+          <t>$289,221,682</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>7.22%</t>
+          <t>8.44%</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-23.31%</t>
+          <t>-10.37%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>76.82%</t>
+          <t>65.04%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Congressional District 28</t>
+          <t>19th Congressional district</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>166</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$172,804,518</t>
+          <t>$312,925,747</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>7.23%</t>
+          <t>11.64%</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>-32.10%</t>
+          <t>-7.33%</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>77.27%</t>
+          <t>61.45%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Congressional District 3</t>
+          <t>20th Congressional district</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>138</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$395,561,209</t>
+          <t>$773,645,524</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4.73%</t>
+          <t>5.55%</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>-21.34%</t>
+          <t>-21.46%</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>73.27%</t>
+          <t>72.46%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Congressional District 4</t>
+          <t>21st Congressional district</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>135</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$322,673,930</t>
+          <t>$310,759,355</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>7.18%</t>
+          <t>8.20%</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>-21.71%</t>
+          <t>-10.59%</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>75.38%</t>
+          <t>65.93%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Congressional District 5</t>
+          <t>22nd Congressional district</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>139</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$545,392,153</t>
+          <t>$370,218,517</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>6.15%</t>
+          <t>10.66%</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>-13.10%</t>
+          <t>-10.26%</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>68.29%</t>
+          <t>66.19%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Congressional District 6</t>
+          <t>23rd Congressional district</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>159</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$381,984,481</t>
+          <t>$350,840,124</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>9.47%</t>
+          <t>7.84%</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>-13.40%</t>
+          <t>-9.65%</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>66.39%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Congressional District 7</t>
+          <t>24th Congressional district</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>147</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$103,435,517</t>
+          <t>$296,615,504</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>5.10%</t>
+          <t>5.76%</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>-12.59%</t>
+          <t>-43.90%</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>64.29%</t>
+          <t>77.55%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Congressional District 8</t>
+          <t>25th Congressional district</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>71</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$308,861,222</t>
+          <t>$256,682,575</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>7.78%</t>
+          <t>5.33%</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>-17.54%</t>
+          <t>-23.26%</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>68.97%</t>
+          <t>70.42%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Congressional District 9</t>
+          <t>26th Congressional district</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>106</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>$208,109,872</t>
+          <t>$516,361,582</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>3.83%</t>
+          <t>7.78%</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>-34.64%</t>
+          <t>-19.82%</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>68.42%</t>
+          <t>75.47%</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>27th Congressional district</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3,981</t>
+          <t>233</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>$12,417,989,542</t>
+          <t>$1,467,494,785</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>7.10%</t>
+          <t>7.22%</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>-16.26%</t>
+          <t>-23.31%</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>69.86%</t>
+          <t>76.82%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>28th Congressional district</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>$172,804,518</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.23%</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>-32.10%</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>77.27%</t>
         </is>
       </c>
     </row>
@@ -3566,34 +3598,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Between $100K and $499K</t>
+          <t>$100K to $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3625,128 +3657,128 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Between $1M and $4.99M</t>
+          <t>$10M or more</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1,242</t>
+          <t>567</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$1,224,192,567</t>
+          <t>$9,973,562,627</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.45%</t>
+          <t>3.73%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-18.63%</t>
+          <t>-15.50%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>72.79%</t>
+          <t>71.08%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Between $500K and $999K</t>
+          <t>$1M to $4.9M</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>1,242</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$172,073,386</t>
+          <t>$1,224,192,567</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.55%</t>
+          <t>7.45%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-13.56%</t>
+          <t>-18.63%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>66.31%</t>
+          <t>72.79%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Between $5M and $9.99M</t>
+          <t>$500K to $999K</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>653</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$923,334,943</t>
+          <t>$172,073,386</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.05%</t>
+          <t>8.55%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-22.29%</t>
+          <t>-13.56%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>76.82%</t>
+          <t>66.31%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Greater than $10M</t>
+          <t>$5M to $9.9M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>302</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$9,973,562,627</t>
+          <t>$923,334,943</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.73%</t>
+          <t>5.05%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-15.50%</t>
+          <t>-22.29%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>71.08%</t>
+          <t>76.82%</t>
         </is>
       </c>
     </row>
@@ -3835,34 +3867,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, Culture, and Humanities</t>
+          <t>Arts, culture, and humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3894,7 +3926,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education (Excluding Universities)</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3926,7 +3958,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and Animals</t>
+          <t>Environment and animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3958,7 +3990,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health (Excluding Hospitals)</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -4022,7 +4054,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human Services</t>
+          <t>Human services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -4054,7 +4086,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, Foreign Affairs</t>
+          <t>International, foreign affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -4086,160 +4118,160 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mutual/Membership Benefit</t>
+          <t>Public, societal benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>276</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$724,199</t>
+          <t>$400,613,946</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>30.50%</t>
+          <t>8.37%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>28.32%</t>
+          <t>-12.04%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>64.86%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Public, Societal Benefit</t>
+          <t>Religion-related</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>95</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$400,613,946</t>
+          <t>$20,487,808</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>8.37%</t>
+          <t>10.57%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-12.04%</t>
+          <t>0.27%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>64.86%</t>
+          <t>48.42%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Religion Related</t>
+          <t>Mutual/membership benefit</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$20,487,808</t>
+          <t>$724,199</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10.57%</t>
+          <t>30.50%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.27%</t>
+          <t>28.32%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>48.42%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>679</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$2,688,625,352</t>
+          <t>$1,056,425,737</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6.05%</t>
+          <t>7.16%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-19.27%</t>
+          <t>1.05%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>72.31%</t>
+          <t>42.50%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>679</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$1,056,425,737</t>
+          <t>$2,688,625,352</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>7.16%</t>
+          <t>6.05%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.05%</t>
+          <t>-19.27%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>42.50%</t>
+          <t>72.31%</t>
         </is>
       </c>
     </row>

--- a/data/processed/state_overviews/florida_overview.xlsx
+++ b/data/processed/state_overviews/florida_overview.xlsx
@@ -364,54 +364,54 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>69.86%</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>3,981</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>$12,417,989,542</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>7.10%</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>-16.26%</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>69.86%</t>
         </is>
       </c>
     </row>
@@ -436,27 +436,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -468,27 +468,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -500,27 +500,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>69.86%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>3,981</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$12,417,989,542</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>7.10%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-16.26%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>69.86%</t>
         </is>
       </c>
     </row>
@@ -532,27 +532,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>76.52%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>115</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$252,023,560</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>3.27%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-22.36%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>76.52%</t>
         </is>
       </c>
     </row>
@@ -564,27 +564,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$2,348,875</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>14.46%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-45.45%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -596,27 +596,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>32</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$99,799,635</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>8.96%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-46.88%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -628,27 +628,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$140,133</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1.77%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-30.49%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -660,27 +660,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>72.00%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>100</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$247,101,646</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>6.05%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-16.44%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>72.00%</t>
         </is>
       </c>
     </row>
@@ -692,27 +692,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>74.43%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>262</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$1,251,409,170</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>5.44%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-22.99%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>74.43%</t>
         </is>
       </c>
     </row>
@@ -724,27 +724,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$8,990,765</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2.06%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>-27.63%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -756,27 +756,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>68.75%</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>32</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>$26,953,653</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>9.06%</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>-31.57%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>68.75%</t>
         </is>
       </c>
     </row>
@@ -788,27 +788,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>73.08%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>26</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>$34,490,449</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2.96%</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>-52.68%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>73.08%</t>
         </is>
       </c>
     </row>
@@ -820,27 +820,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>82.61%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>23</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$44,205,689</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1.46%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>-16.26%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>82.61%</t>
         </is>
       </c>
     </row>
@@ -852,27 +852,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>54.67%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>75</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$211,590,899</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>11.91%</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>-3.03%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>54.67%</t>
         </is>
       </c>
     </row>
@@ -884,27 +884,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>81.82%</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>$27,834,049</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2.40%</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>-47.31%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>81.82%</t>
         </is>
       </c>
     </row>
@@ -916,27 +916,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>$381,753</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>18.27%</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>-3.72%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -948,27 +948,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>$1,291,273</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>-1.07%</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>-80.86%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -980,27 +980,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>212</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>$734,483,058</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>6.34%</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>-17.90%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -1012,27 +1012,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>72.58%</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>62</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>$115,892,796</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>6.29%</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>-15.34%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>72.58%</t>
         </is>
       </c>
     </row>
@@ -1044,27 +1044,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>70.59%</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>$17,266,782</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>12.64%</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>-22.45%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>70.59%</t>
         </is>
       </c>
     </row>
@@ -1076,27 +1076,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>$723,329</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>34.87%</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>12.80%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -1108,27 +1108,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>91.67%</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>$9,834,364</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>3.96%</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>-53.02%</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>91.67%</t>
         </is>
       </c>
     </row>
@@ -1140,27 +1140,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>$420,684</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>9.01%</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>4.47%</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -1172,27 +1172,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>$1,264,439</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>5.70%</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>-52.77%</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1204,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>$79,153</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>-79.67%</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>-95.34%</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1236,27 +1236,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>57.14%</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>$1,396,147</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>17.39%</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>-18.83%</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>57.14%</t>
         </is>
       </c>
     </row>
@@ -1268,27 +1268,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>$378,772</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>13.92%</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>-5.69%</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -1300,27 +1300,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>88.24%</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>$43,399,435</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>4.71%</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>-32.50%</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>88.24%</t>
         </is>
       </c>
     </row>
@@ -1332,27 +1332,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>55.00%</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>$11,206,050</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>13.57%</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>-3.39%</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>55.00%</t>
         </is>
       </c>
     </row>
@@ -1364,27 +1364,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>70.40%</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>277</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>$1,407,963,537</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>5.74%</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>-13.33%</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>70.40%</t>
         </is>
       </c>
     </row>
@@ -1396,27 +1396,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>$10,484,050</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>16.56%</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>-1.21%</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -1428,27 +1428,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>62.22%</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>45</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>$61,759,576</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>12.26%</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>-18.54%</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>62.22%</t>
         </is>
       </c>
     </row>
@@ -1460,27 +1460,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>85.71%</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>$35,936,359</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1.32%</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>-95.97%</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>85.71%</t>
         </is>
       </c>
     </row>
@@ -1492,27 +1492,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>$1,382,186</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>-13.41%</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>-90.48%</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1524,27 +1524,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>63.04%</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>46</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>$92,853,127</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>9.00%</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>-6.85%</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>63.04%</t>
         </is>
       </c>
     </row>
@@ -1556,27 +1556,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>63.25%</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>117</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>$229,141,473</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>11.56%</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>-9.64%</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>63.25%</t>
         </is>
       </c>
     </row>
@@ -1588,27 +1588,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>81.25%</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>160</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>$852,721,345</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2.61%</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>-36.93%</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>81.25%</t>
         </is>
       </c>
     </row>
@@ -1620,27 +1620,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>87.50%</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>$2,980,266</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>3.45%</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>-25.09%</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>87.50%</t>
         </is>
       </c>
     </row>
@@ -1652,27 +1652,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>$456,385</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>10.32%</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>-62.76%</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1684,27 +1684,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>87.50%</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>$7,192,846</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>3.62%</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>-40.28%</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>87.50%</t>
         </is>
       </c>
     </row>
@@ -1716,27 +1716,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>68.25%</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
           <t>63</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>$131,016,077</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>4.67%</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>-9.49%</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>68.25%</t>
         </is>
       </c>
     </row>
@@ -1748,27 +1748,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>60.34%</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
           <t>58</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>$99,988,649</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>10.75%</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>-14.99%</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>60.34%</t>
         </is>
       </c>
     </row>
@@ -1780,27 +1780,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
           <t>40</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>$61,948,190</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>17.12%</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>-6.81%</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -1812,27 +1812,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>78.75%</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
           <t>513</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>$2,359,934,151</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>6.68%</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>-29.24%</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>78.75%</t>
         </is>
       </c>
     </row>
@@ -1844,27 +1844,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>71.64%</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
           <t>67</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>$53,789,178</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>9.64%</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>-26.06%</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>71.64%</t>
         </is>
       </c>
     </row>
@@ -1876,27 +1876,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>56.25%</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
           <t>16</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>$12,063,993</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>11.69%</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>-6.57%</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>56.25%</t>
         </is>
       </c>
     </row>
@@ -1908,27 +1908,27 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>65.00%</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
           <t>40</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>$45,017,157</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>5.58%</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>-7.93%</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>65.00%</t>
         </is>
       </c>
     </row>
@@ -1940,27 +1940,27 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>$2,457,907</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>12.47%</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>-29.93%</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -1972,27 +1972,27 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>63.20%</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
           <t>269</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>$900,892,042</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>10.28%</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>-9.86%</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>63.20%</t>
         </is>
       </c>
     </row>
@@ -2004,27 +2004,27 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>78.95%</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
           <t>38</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>$116,329,684</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>2.88%</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>-55.17%</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>78.95%</t>
         </is>
       </c>
     </row>
@@ -2036,27 +2036,27 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
+          <t>62.24%</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
           <t>294</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>$643,349,006</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>8.44%</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>-7.21%</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>62.24%</t>
         </is>
       </c>
     </row>
@@ -2068,27 +2068,27 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
           <t>60</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>$152,518,252</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>5.39%</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>-19.14%</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -2100,27 +2100,27 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
+          <t>69.23%</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
           <t>247</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>$742,347,141</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>4.81%</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>-15.95%</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>69.23%</t>
         </is>
       </c>
     </row>
@@ -2132,27 +2132,27 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
+          <t>64.36%</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
           <t>101</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>$263,497,115</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>7.47%</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>-10.30%</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>64.36%</t>
         </is>
       </c>
     </row>
@@ -2164,27 +2164,27 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
+          <t>58.33%</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>$18,254,001</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>12.72%</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>-18.76%</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>58.33%</t>
         </is>
       </c>
     </row>
@@ -2196,27 +2196,27 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>$12,868,640</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>9.42%</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>-33.93%</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -2228,27 +2228,27 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
+          <t>56.20%</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
           <t>137</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>$207,704,911</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>10.59%</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>-6.02%</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>56.20%</t>
         </is>
       </c>
     </row>
@@ -2260,27 +2260,27 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
+          <t>68.85%</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
           <t>61</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>$96,642,713</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>4.03%</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>-16.55%</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>68.85%</t>
         </is>
       </c>
     </row>
@@ -2292,27 +2292,27 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
+          <t>54.55%</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
           <t>44</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>$79,154,312</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>11.08%</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>-3.21%</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>54.55%</t>
         </is>
       </c>
     </row>
@@ -2324,27 +2324,27 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
+          <t>76.60%</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
           <t>47</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>$125,007,084</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>4.43%</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>-20.90%</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>76.60%</t>
         </is>
       </c>
     </row>
@@ -2356,27 +2356,27 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
+          <t>90.00%</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>$79,896,447</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>2.35%</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>-15.38%</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>90.00%</t>
         </is>
       </c>
     </row>
@@ -2388,27 +2388,27 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
+          <t>83.33%</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>$11,432,544</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>2.30%</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>-43.70%</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>83.33%</t>
         </is>
       </c>
     </row>
@@ -2420,27 +2420,27 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>$4,557,620</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>9.22%</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>-38.24%</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -2452,27 +2452,27 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
+          <t>63.22%</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
           <t>87</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>$333,477,682</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>8.39%</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>-12.22%</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>63.22%</t>
         </is>
       </c>
     </row>
@@ -2484,27 +2484,27 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>$1,424,040</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>5.55%</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>-23.58%</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -2516,27 +2516,27 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>$13,831,342</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>14.88%</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>-13.68%</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -2548,27 +2548,27 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>$811,956</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>6.98%</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>-30.62%</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -2593,27 +2593,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -2625,27 +2625,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -2657,923 +2657,923 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>69.86%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>3,981</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$12,417,989,542</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>7.10%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-16.26%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>69.86%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1st Congressional district</t>
+          <t>Congressional District 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>68.91%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>119</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$182,374,278</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>6.73%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-13.19%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>68.91%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2nd Congressional district</t>
+          <t>Congressional District 10</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>65.91%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$1,040,814,976</t>
+          <t>220</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.39%</t>
+          <t>$772,921,938</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-36.79%</t>
+          <t>9.89%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>80.16%</t>
+          <t>-11.24%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3rd Congressional district</t>
+          <t>Congressional District 11</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>62.67%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$395,561,209</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.73%</t>
+          <t>$197,171,432</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-21.34%</t>
+          <t>9.84%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>73.27%</t>
+          <t>-7.19%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4th Congressional district</t>
+          <t>Congressional District 12</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>74.74%</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$322,673,930</t>
+          <t>95</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.18%</t>
+          <t>$224,122,617</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-21.71%</t>
+          <t>4.71%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>75.38%</t>
+          <t>-40.51%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5th Congressional district</t>
+          <t>Congressional District 13</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>63.23%</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$545,392,153</t>
+          <t>155</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6.15%</t>
+          <t>$639,382,495</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-13.10%</t>
+          <t>7.34%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>68.29%</t>
+          <t>-9.95%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6th Congressional district</t>
+          <t>Congressional District 14</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>76.32%</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$381,984,481</t>
+          <t>266</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9.47%</t>
+          <t>$1,178,206,610</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-13.40%</t>
+          <t>4.75%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>66.39%</t>
+          <t>-21.83%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7th Congressional district</t>
+          <t>Congressional District 15</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>61.54%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$103,435,517</t>
+          <t>104</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5.10%</t>
+          <t>$418,353,887</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-12.59%</t>
+          <t>6.05%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>64.29%</t>
+          <t>-11.12%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8th Congressional district</t>
+          <t>Congressional District 16</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>63.53%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$308,861,222</t>
+          <t>85</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>7.78%</t>
+          <t>$143,367,563</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-17.54%</t>
+          <t>5.60%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>68.97%</t>
+          <t>-6.75%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>9th Congressional district</t>
+          <t>Congressional District 17</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>58.76%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$208,109,872</t>
+          <t>177</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3.83%</t>
+          <t>$237,685,449</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-34.64%</t>
+          <t>9.76%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>68.42%</t>
+          <t>-6.26%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>10th Congressional district</t>
+          <t>Congressional District 18</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>65.04%</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$772,921,938</t>
+          <t>123</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>9.89%</t>
+          <t>$289,221,682</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-11.24%</t>
+          <t>8.44%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>65.91%</t>
+          <t>-10.37%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>11th Congressional district</t>
+          <t>Congressional District 19</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>61.45%</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$197,171,432</t>
+          <t>166</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>9.84%</t>
+          <t>$312,925,747</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-7.19%</t>
+          <t>11.64%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>62.67%</t>
+          <t>-7.33%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>12th Congressional district</t>
+          <t>Congressional District 2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>80.16%</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$224,122,617</t>
+          <t>257</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>$1,040,814,976</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-40.51%</t>
+          <t>3.39%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>74.74%</t>
+          <t>-36.79%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>13th Congressional district</t>
+          <t>Congressional District 20</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>72.46%</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$639,382,495</t>
+          <t>138</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>7.34%</t>
+          <t>$773,645,524</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-9.95%</t>
+          <t>5.55%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>63.23%</t>
+          <t>-21.46%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>14th Congressional district</t>
+          <t>Congressional District 21</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>65.93%</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$1,178,206,610</t>
+          <t>135</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.75%</t>
+          <t>$310,759,355</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-21.83%</t>
+          <t>8.20%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>76.32%</t>
+          <t>-10.59%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>15th Congressional district</t>
+          <t>Congressional District 22</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>66.19%</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$418,353,887</t>
+          <t>139</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>6.05%</t>
+          <t>$370,218,517</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-11.12%</t>
+          <t>10.66%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>61.54%</t>
+          <t>-10.26%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>16th Congressional district</t>
+          <t>Congressional District 23</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$143,367,563</t>
+          <t>159</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>5.60%</t>
+          <t>$350,840,124</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-6.75%</t>
+          <t>7.84%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>63.53%</t>
+          <t>-9.65%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>17th Congressional district</t>
+          <t>Congressional District 24</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>77.55%</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$237,685,449</t>
+          <t>147</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>9.76%</t>
+          <t>$296,615,504</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-6.26%</t>
+          <t>5.76%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>58.76%</t>
+          <t>-43.90%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>18th Congressional district</t>
+          <t>Congressional District 25</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>70.42%</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$289,221,682</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>8.44%</t>
+          <t>$256,682,575</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-10.37%</t>
+          <t>5.33%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>65.04%</t>
+          <t>-23.26%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>19th Congressional district</t>
+          <t>Congressional District 26</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>75.47%</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$312,925,747</t>
+          <t>106</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>11.64%</t>
+          <t>$516,361,582</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>-7.33%</t>
+          <t>7.78%</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>61.45%</t>
+          <t>-19.82%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20th Congressional district</t>
+          <t>Congressional District 27</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>76.82%</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$773,645,524</t>
+          <t>233</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>5.55%</t>
+          <t>$1,467,494,785</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>-21.46%</t>
+          <t>7.22%</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>72.46%</t>
+          <t>-23.31%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>21st Congressional district</t>
+          <t>Congressional District 28</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>77.27%</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$310,759,355</t>
+          <t>110</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>8.20%</t>
+          <t>$172,804,518</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>-10.59%</t>
+          <t>7.23%</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>65.93%</t>
+          <t>-32.10%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>22nd Congressional district</t>
+          <t>Congressional District 3</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>73.27%</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$370,218,517</t>
+          <t>202</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>10.66%</t>
+          <t>$395,561,209</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>-10.26%</t>
+          <t>4.73%</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>66.19%</t>
+          <t>-21.34%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>23rd Congressional district</t>
+          <t>Congressional District 4</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>75.38%</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$350,840,124</t>
+          <t>130</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>7.84%</t>
+          <t>$322,673,930</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>-9.65%</t>
+          <t>7.18%</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>-21.71%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>24th Congressional district</t>
+          <t>Congressional District 5</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>68.29%</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$296,615,504</t>
+          <t>164</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>5.76%</t>
+          <t>$545,392,153</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>-43.90%</t>
+          <t>6.15%</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>77.55%</t>
+          <t>-13.10%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>25th Congressional district</t>
+          <t>Congressional District 6</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>66.39%</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$256,682,575</t>
+          <t>119</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>5.33%</t>
+          <t>$381,984,481</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>-23.26%</t>
+          <t>9.47%</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>70.42%</t>
+          <t>-13.40%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>26th Congressional district</t>
+          <t>Congressional District 7</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>64.29%</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>$516,361,582</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>7.78%</t>
+          <t>$103,435,517</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>-19.82%</t>
+          <t>5.10%</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>75.47%</t>
+          <t>-12.59%</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>27th Congressional district</t>
+          <t>Congressional District 8</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>68.97%</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>$1,467,494,785</t>
+          <t>145</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>7.22%</t>
+          <t>$308,861,222</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>-23.31%</t>
+          <t>7.78%</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>76.82%</t>
+          <t>-17.54%</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>28th Congressional district</t>
+          <t>Congressional District 9</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>68.42%</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>$172,804,518</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>7.23%</t>
+          <t>$208,109,872</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>-32.10%</t>
+          <t>3.83%</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>77.27%</t>
+          <t>-34.64%</t>
         </is>
       </c>
     </row>
@@ -3598,187 +3598,187 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>$100K to $499K</t>
+          <t>Between $100K and $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>66.13%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>1,060</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$116,392,482</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.22%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-14.91%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>66.13%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>$10M or more</t>
+          <t>Between $1M and $4.99M</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>72.79%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$9,973,562,627</t>
+          <t>1,242</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.73%</t>
+          <t>$1,224,192,567</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-15.50%</t>
+          <t>7.45%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>71.08%</t>
+          <t>-18.63%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>$1M to $4.9M</t>
+          <t>Between $500K and $999K</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1,242</t>
+          <t>66.31%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$1,224,192,567</t>
+          <t>653</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.45%</t>
+          <t>$172,073,386</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-18.63%</t>
+          <t>8.55%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>72.79%</t>
+          <t>-13.56%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>$500K to $999K</t>
+          <t>Between $5M and $9.99M</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>76.82%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$172,073,386</t>
+          <t>302</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.55%</t>
+          <t>$923,334,943</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-13.56%</t>
+          <t>5.05%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>66.31%</t>
+          <t>-22.29%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>$5M to $9.9M</t>
+          <t>Greater than $10M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>71.08%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$923,334,943</t>
+          <t>567</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.05%</t>
+          <t>$9,973,562,627</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-22.29%</t>
+          <t>3.73%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>76.82%</t>
+          <t>-15.50%</t>
         </is>
       </c>
     </row>
@@ -3790,27 +3790,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>68.79%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>157</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$8,433,537</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>15.23%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-21.64%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>68.79%</t>
         </is>
       </c>
     </row>
@@ -3822,27 +3822,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>69.86%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>3,981</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$12,417,989,542</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>7.10%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-16.26%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>69.86%</t>
         </is>
       </c>
     </row>
@@ -3867,155 +3867,155 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, culture, and humanities</t>
+          <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>73.78%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>389</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$340,140,912</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>10.54%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-17.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>73.78%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Education (Excluding Universities)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>72.08%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>591</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$2,743,600,857</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>5.89%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-15.85%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>72.08%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and animals</t>
+          <t>Environment and Animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>50.30%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>167</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$103,271,326</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>15.22%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-0.40%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>50.30%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>72.68%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>421</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$1,741,606,239</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>6.51%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-17.87%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>72.68%</t>
         </is>
       </c>
     </row>
@@ -4027,251 +4027,251 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>45.83%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>24</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$92,417,990</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>8.53%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2.21%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>45.83%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human services</t>
+          <t>Human Services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>72.81%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>1,247</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$3,141,813,398</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>5.17%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-22.60%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>72.81%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, foreign affairs</t>
+          <t>International, Foreign Affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>52.00%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>50</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$88,261,778</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>13.12%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-0.46%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>52.00%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, societal benefit</t>
+          <t>Mutual/Membership Benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$400,613,946</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>8.37%</t>
+          <t>$724,199</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-12.04%</t>
+          <t>30.50%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>64.86%</t>
+          <t>28.32%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion-related</t>
+          <t>Public, Societal Benefit</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>64.86%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$20,487,808</t>
+          <t>276</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10.57%</t>
+          <t>$400,613,946</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.27%</t>
+          <t>8.37%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>48.42%</t>
+          <t>-12.04%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Mutual/membership benefit</t>
+          <t>Religion Related</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>48.42%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$724,199</t>
+          <t>95</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>30.50%</t>
+          <t>$20,487,808</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>28.32%</t>
+          <t>10.57%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0.27%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>72.31%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$1,056,425,737</t>
+          <t>679</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>7.16%</t>
+          <t>$2,688,625,352</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.05%</t>
+          <t>6.05%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>42.50%</t>
+          <t>-19.27%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>679</t>
+          <t>42.50%</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$2,688,625,352</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6.05%</t>
+          <t>$1,056,425,737</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-19.27%</t>
+          <t>7.16%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>72.31%</t>
+          <t>1.05%</t>
         </is>
       </c>
     </row>
@@ -4283,27 +4283,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>69.86%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>3,981</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$12,417,989,542</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>7.10%</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>-16.26%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>69.86%</t>
         </is>
       </c>
     </row>
